--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a\data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\shailesh\PycharmProjects\IPOresult-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0C6660-D71D-45D9-B267-303934CD04AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F38889-DFD1-4D94-B9DF-D23327E02D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="1410" windowWidth="20685" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="Slicer_Quantity">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,13 +40,13 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Company Name</t>
+  </si>
+  <si>
     <t>BOID</t>
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>Company Name</t>
   </si>
 </sst>
 </file>
@@ -68,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -80,9 +90,18 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -104,36 +123,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,34 +422,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="52" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
